--- a/双塔单扇双扇三扇夹汉堡对比.xlsx
+++ b/双塔单扇双扇三扇夹汉堡对比.xlsx
@@ -5,37 +5,71 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/双塔单扇双扇三扇/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5A36F-6F41-ED43-A070-BF19F9B666FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6A6AD-437D-264C-9C27-F22316FCD519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="680" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>单扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三扇</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>P60T Ultra单莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P60T Ultra双莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P60T Ultra三莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK620G2单莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK620G2双莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK620G2三莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK620G2单F9 R120_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK620G2双F9 R120_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK620G2三F9 R120_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,37 +437,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>57</v>
       </c>
       <c r="B2">
-        <v>78.900000000000006</v>
+        <f>78.9-27.3</f>
+        <v>51.600000000000009</v>
       </c>
       <c r="C2">
         <v>2991</v>
@@ -442,7 +507,8 @@
         <v>60.4</v>
       </c>
       <c r="E2">
-        <v>77.599999999999994</v>
+        <f>77.6-27.3</f>
+        <v>50.3</v>
       </c>
       <c r="F2">
         <v>3062</v>
@@ -451,18 +517,74 @@
         <v>61.7</v>
       </c>
       <c r="H2">
-        <v>76.5</v>
+        <f>76.5-27.3</f>
+        <v>49.2</v>
       </c>
       <c r="I2">
         <v>3069</v>
       </c>
+      <c r="J2">
+        <v>43.8</v>
+      </c>
+      <c r="K2">
+        <v>56.3</v>
+      </c>
+      <c r="L2">
+        <v>2366</v>
+      </c>
+      <c r="M2">
+        <v>46.2</v>
+      </c>
+      <c r="N2">
+        <v>54.7</v>
+      </c>
+      <c r="O2">
+        <v>2370</v>
+      </c>
+      <c r="P2">
+        <v>47.5</v>
+      </c>
+      <c r="Q2">
+        <v>54.3</v>
+      </c>
+      <c r="R2">
+        <v>2384</v>
+      </c>
+      <c r="S2">
+        <v>43.9</v>
+      </c>
+      <c r="T2">
+        <v>54.8</v>
+      </c>
+      <c r="U2">
+        <v>2392</v>
+      </c>
+      <c r="V2">
+        <v>46.7</v>
+      </c>
+      <c r="W2">
+        <v>52.4</v>
+      </c>
+      <c r="X2">
+        <v>2384</v>
+      </c>
+      <c r="Y2">
+        <v>47.9</v>
+      </c>
+      <c r="Z2">
+        <v>52.1</v>
+      </c>
+      <c r="AA2">
+        <v>2381</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>50</v>
       </c>
       <c r="B3">
-        <v>80.3</v>
+        <f>80.3-27.3</f>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>2332</v>
@@ -471,7 +593,8 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <f>79-27.3</f>
+        <v>51.7</v>
       </c>
       <c r="F3">
         <v>2139</v>
@@ -480,18 +603,74 @@
         <v>50</v>
       </c>
       <c r="H3">
-        <v>78.099999999999994</v>
+        <f>78.1-27.3</f>
+        <v>50.8</v>
       </c>
       <c r="I3">
         <v>2065</v>
       </c>
+      <c r="J3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K3">
+        <v>57.8</v>
+      </c>
+      <c r="L3">
+        <v>1964</v>
+      </c>
+      <c r="M3">
+        <v>40.1</v>
+      </c>
+      <c r="N3">
+        <v>56.2</v>
+      </c>
+      <c r="O3">
+        <v>1896</v>
+      </c>
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <v>56.1</v>
+      </c>
+      <c r="R3">
+        <v>1789</v>
+      </c>
+      <c r="S3">
+        <v>39.9</v>
+      </c>
+      <c r="T3">
+        <v>55.7</v>
+      </c>
+      <c r="U3">
+        <v>2027</v>
+      </c>
+      <c r="V3">
+        <v>40</v>
+      </c>
+      <c r="W3">
+        <v>54.2</v>
+      </c>
+      <c r="X3">
+        <v>1835</v>
+      </c>
+      <c r="Y3">
+        <v>40</v>
+      </c>
+      <c r="Z3">
+        <v>53.6</v>
+      </c>
+      <c r="AA3">
+        <v>1771</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>44.9</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <f>82-27.3</f>
+        <v>54.7</v>
       </c>
       <c r="C4">
         <v>1896</v>
@@ -500,7 +679,8 @@
         <v>44.9</v>
       </c>
       <c r="E4">
-        <v>80.400000000000006</v>
+        <f>80.4-27.3</f>
+        <v>53.100000000000009</v>
       </c>
       <c r="F4">
         <v>1744</v>
@@ -509,18 +689,20 @@
         <v>44.8</v>
       </c>
       <c r="H4">
-        <v>79.2</v>
+        <f>79.2-27.3</f>
+        <v>51.900000000000006</v>
       </c>
       <c r="I4">
         <v>1668</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>83.9</v>
+        <f>83.9-27.3</f>
+        <v>56.600000000000009</v>
       </c>
       <c r="C5">
         <v>1564</v>
@@ -529,7 +711,8 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>82.2</v>
+        <f>82.2-27.3</f>
+        <v>54.900000000000006</v>
       </c>
       <c r="F5">
         <v>1438</v>
@@ -538,17 +721,24 @@
         <v>40.1</v>
       </c>
       <c r="H5">
-        <v>80.7</v>
+        <f>80.7-27.3</f>
+        <v>53.400000000000006</v>
       </c>
       <c r="I5">
         <v>1410</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/双塔单扇双扇三扇夹汉堡对比.xlsx
+++ b/双塔单扇双扇三扇夹汉堡对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6A6AD-437D-264C-9C27-F22316FCD519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312520FD-E85E-F74E-BE83-03292FB03938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="680" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -658,7 +658,7 @@
         <v>40</v>
       </c>
       <c r="Z3">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="AA3">
         <v>1771</v>
